--- a/uploads/input.xlsx
+++ b/uploads/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpgokcek/PycharmProjects/rest-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SPA\spa-analyzer-flask\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A1AE4-4B81-364C-A878-04BDB9710181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2479E9B6-243E-4316-854E-4185EAB30BB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32660" yWindow="-3940" windowWidth="32640" windowHeight="28340" tabRatio="750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>Student ID</t>
   </si>
@@ -77,27 +80,9 @@
     <t>CO1,CO4</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>B+</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C-</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>C+</t>
-  </si>
-  <si>
     <t>A-</t>
   </si>
   <si>
@@ -107,66 +92,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>ULUÇ FURKAN</t>
-  </si>
-  <si>
-    <t>BERKAY</t>
-  </si>
-  <si>
-    <t>İLKAY TEVFİK</t>
-  </si>
-  <si>
-    <t>MUHAMMED</t>
-  </si>
-  <si>
-    <t>AHMET MELİH</t>
-  </si>
-  <si>
-    <t>KAAN</t>
-  </si>
-  <si>
-    <t>DENİZ ANIL</t>
-  </si>
-  <si>
-    <t>DOĞAN GÖREY</t>
-  </si>
-  <si>
-    <t>YASİN YAĞIZ</t>
-  </si>
-  <si>
-    <t>BURÇİN</t>
-  </si>
-  <si>
-    <t>SERKAN</t>
-  </si>
-  <si>
-    <t>ACAR</t>
-  </si>
-  <si>
-    <t>ORBEY</t>
-  </si>
-  <si>
-    <t>GÖKBERK</t>
-  </si>
-  <si>
-    <t>UĞUR</t>
-  </si>
-  <si>
-    <t>MELİS</t>
-  </si>
-  <si>
-    <t>MERT</t>
-  </si>
-  <si>
-    <t>ERSİN</t>
-  </si>
-  <si>
-    <t>ABDULKADİR</t>
-  </si>
-  <si>
-    <t>SÜLEYMAN KAĞAN</t>
-  </si>
-  <si>
     <t>QUIZ1</t>
   </si>
   <si>
@@ -233,18 +158,6 @@
     <t>Program Outcomes</t>
   </si>
   <si>
-    <t>Know the structure of Transport layer</t>
-  </si>
-  <si>
-    <t>Understand the basics of socket programming and write programs using network applications</t>
-  </si>
-  <si>
-    <t>Identify the structure and components of application layer</t>
-  </si>
-  <si>
-    <t>Demonstrate general knowledge of current issues in computer networks</t>
-  </si>
-  <si>
     <t>Program Outcome List</t>
   </si>
   <si>
@@ -317,12 +230,6 @@
     <t>an ability to use the techniques, skills, and modern engineering tools necessary for computer engineering practice.</t>
   </si>
   <si>
-    <t>COMP421</t>
-  </si>
-  <si>
-    <t>Computer Networks</t>
-  </si>
-  <si>
     <t>PO_b1</t>
   </si>
   <si>
@@ -372,6 +279,39 @@
   </si>
   <si>
     <t>QUIZ2</t>
+  </si>
+  <si>
+    <t>MUH1396</t>
+  </si>
+  <si>
+    <t>Muhammed Test</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>tEST3</t>
+  </si>
+  <si>
+    <t>tEST4</t>
+  </si>
+  <si>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>TEST3</t>
+  </si>
+  <si>
+    <t>TEST4</t>
+  </si>
+  <si>
+    <t>TEST5</t>
   </si>
 </sst>
 </file>
@@ -876,7 +816,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -946,9 +886,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -994,267 +931,282 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="240">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
   </cellStyles>
@@ -1595,164 +1547,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A19"/>
+    <sheetView topLeftCell="A3" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="121.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.83203125" style="46"/>
+    <col min="1" max="1" width="18" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.375" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5">
+      <c r="A7" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="45" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="47" t="s">
+      <c r="B10" s="47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="46" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="46" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="32">
-      <c r="A7" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16">
-      <c r="A8" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16">
-      <c r="A10" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16">
-      <c r="A11" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16">
-      <c r="A12" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16">
-      <c r="A13" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16">
-      <c r="A14" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16">
-      <c r="A15" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16">
-      <c r="A16" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16">
-      <c r="A17" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16">
-      <c r="A18" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16">
-      <c r="A19" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>94</v>
+    <row r="16" spans="1:2">
+      <c r="A16" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1765,108 +1717,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C10"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.83203125" style="51"/>
+    <col min="1" max="1" width="16" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.125" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.625" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.875" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="51">
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="51">
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="42"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="52" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="43"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="53" t="s">
+      <c r="B8" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="42"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="43"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="43"/>
+      <c r="B9" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,30 +1830,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A4" zoomScale="113" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="25" style="17" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="16" customWidth="1"/>
-    <col min="6" max="13" width="11.6640625" style="17" customWidth="1"/>
-    <col min="14" max="15" width="12.33203125" style="17" customWidth="1"/>
-    <col min="16" max="18" width="11.1640625" style="17" customWidth="1"/>
+    <col min="6" max="13" width="11.625" style="17" customWidth="1"/>
+    <col min="14" max="15" width="12.375" style="17" customWidth="1"/>
+    <col min="16" max="18" width="11.125" style="17" customWidth="1"/>
     <col min="19" max="19" width="11" style="17" customWidth="1"/>
-    <col min="20" max="21" width="12.33203125" style="17" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" style="17" customWidth="1"/>
+    <col min="20" max="21" width="12.375" style="17" customWidth="1"/>
+    <col min="22" max="22" width="11.125" style="17" customWidth="1"/>
     <col min="23" max="24" width="11" style="17" customWidth="1"/>
     <col min="25" max="25" width="12" style="17" customWidth="1"/>
     <col min="26" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="22" customFormat="1" ht="26">
+    <row r="1" spans="1:31" s="22" customFormat="1" ht="26.25">
       <c r="A1" s="20" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="21"/>
@@ -1933,63 +1885,63 @@
       <c r="AD1" s="25"/>
       <c r="AE1" s="25"/>
     </row>
-    <row r="2" spans="1:31" s="5" customFormat="1" ht="26">
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="26.25">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="61"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="14" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="61"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="15">
         <v>2</v>
       </c>
@@ -2014,31 +1966,31 @@
       <c r="M3" s="15">
         <v>7</v>
       </c>
-      <c r="N3" s="56">
+      <c r="N3" s="65">
         <v>30</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="56">
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="65">
         <v>40</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-    </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="26">
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+    </row>
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="26.25">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="61"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
@@ -2104,10 +2056,10 @@
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="61"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="3">
         <v>100</v>
       </c>
@@ -2173,79 +2125,79 @@
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:31" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="61"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="1" t="b">
         <v>1</v>
       </c>
@@ -2311,7 +2263,7 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="41"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="27"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2338,7 +2290,7 @@
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2420,21 +2372,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="5" customFormat="1" ht="17">
+    <row r="10" spans="1:31" s="5" customFormat="1">
       <c r="A10" s="30">
-        <v>41501029</v>
+        <v>41515001</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C10" s="32">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>23</v>
+      <c r="E10" s="41" t="s">
+        <v>17</v>
       </c>
       <c r="F10" s="32">
         <v>100</v>
@@ -2497,21 +2449,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="5" customFormat="1" ht="17">
+    <row r="11" spans="1:31" s="5" customFormat="1">
       <c r="A11" s="30">
-        <v>41401002</v>
+        <v>41515002</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C11" s="32">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>22</v>
+      <c r="E11" s="41" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="32">
         <v>0</v>
@@ -2574,21 +2526,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="5" customFormat="1" ht="17">
+    <row r="12" spans="1:31" s="5" customFormat="1">
       <c r="A12" s="30">
-        <v>41401007</v>
+        <v>41515003</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C12" s="32">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>16</v>
+      <c r="E12" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="F12" s="32">
         <v>100</v>
@@ -2653,19 +2605,19 @@
     </row>
     <row r="13" spans="1:31" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13" s="30">
-        <v>41501017</v>
+        <v>41515004</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C13" s="32">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>24</v>
+      <c r="E13" s="41" t="s">
+        <v>18</v>
       </c>
       <c r="F13" s="32">
         <v>100</v>
@@ -2676,7 +2628,7 @@
       <c r="H13" s="32">
         <v>0</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <v>0</v>
       </c>
       <c r="J13" s="32">
@@ -2728,21 +2680,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="5" customFormat="1" ht="17">
+    <row r="14" spans="1:31" s="5" customFormat="1">
       <c r="A14" s="30">
-        <v>41501009</v>
+        <v>41515005</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C14" s="32">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>24</v>
+      <c r="E14" s="41" t="s">
+        <v>18</v>
       </c>
       <c r="F14" s="32">
         <v>80</v>
@@ -2805,1287 +2757,567 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="5" customFormat="1" ht="17">
-      <c r="A15" s="30">
-        <v>41501012</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="32">
-        <v>68</v>
-      </c>
-      <c r="D15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="32">
-        <v>0</v>
-      </c>
-      <c r="G15" s="32">
-        <v>0</v>
-      </c>
-      <c r="H15" s="32">
-        <v>80</v>
-      </c>
-      <c r="I15" s="32">
-        <v>80</v>
-      </c>
-      <c r="J15" s="32">
-        <v>80</v>
-      </c>
-      <c r="K15" s="32">
-        <v>90</v>
-      </c>
-      <c r="L15" s="32">
-        <v>70</v>
-      </c>
-      <c r="M15" s="32">
-        <v>100</v>
-      </c>
-      <c r="N15" s="1">
-        <v>7</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>7</v>
-      </c>
-      <c r="R15" s="1">
-        <v>10</v>
-      </c>
-      <c r="S15" s="2">
-        <v>20</v>
-      </c>
-      <c r="T15" s="1">
-        <v>9</v>
-      </c>
-      <c r="U15" s="1">
-        <v>9</v>
-      </c>
-      <c r="V15" s="1">
-        <v>15</v>
-      </c>
-      <c r="W15" s="2">
-        <v>15</v>
-      </c>
-      <c r="X15" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" s="5" customFormat="1" ht="17">
-      <c r="A16" s="30">
-        <v>41501011</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="32">
-        <v>66</v>
-      </c>
-      <c r="D16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="32">
-        <v>100</v>
-      </c>
-      <c r="G16" s="32">
-        <v>100</v>
-      </c>
-      <c r="H16" s="32">
-        <v>100</v>
-      </c>
-      <c r="I16" s="32">
-        <v>0</v>
-      </c>
-      <c r="J16" s="32">
-        <v>100</v>
-      </c>
-      <c r="K16" s="32">
-        <v>70</v>
-      </c>
-      <c r="L16" s="32">
-        <v>80</v>
-      </c>
-      <c r="M16" s="32">
-        <v>70</v>
-      </c>
-      <c r="N16" s="1">
-        <v>7</v>
-      </c>
-      <c r="O16" s="1">
-        <v>7</v>
-      </c>
-      <c r="P16" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>10</v>
-      </c>
-      <c r="R16" s="1">
-        <v>15</v>
-      </c>
-      <c r="S16" s="1">
-        <v>10</v>
-      </c>
-      <c r="T16" s="1">
-        <v>8</v>
-      </c>
-      <c r="U16" s="1">
-        <v>9</v>
-      </c>
-      <c r="V16" s="1">
-        <v>15</v>
-      </c>
-      <c r="W16" s="1">
-        <v>15</v>
-      </c>
-      <c r="X16" s="1">
-        <v>7</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" s="5" customFormat="1" ht="17">
-      <c r="A17" s="30">
-        <v>41401019</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="32">
-        <v>62</v>
-      </c>
-      <c r="D17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="32">
-        <v>0</v>
-      </c>
-      <c r="G17" s="32">
-        <v>80</v>
-      </c>
-      <c r="H17" s="32">
-        <v>80</v>
-      </c>
-      <c r="I17" s="32">
-        <v>60</v>
-      </c>
-      <c r="J17" s="32">
-        <v>50</v>
-      </c>
-      <c r="K17" s="32">
-        <v>80</v>
-      </c>
-      <c r="L17" s="32">
-        <v>85</v>
-      </c>
-      <c r="M17" s="32">
-        <v>50</v>
-      </c>
-      <c r="N17" s="1">
-        <v>8</v>
-      </c>
-      <c r="O17" s="1">
-        <v>2</v>
-      </c>
-      <c r="P17" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>20</v>
-      </c>
-      <c r="R17" s="1">
-        <v>17</v>
-      </c>
-      <c r="S17" s="1">
-        <v>5</v>
-      </c>
-      <c r="T17" s="1">
-        <v>6</v>
-      </c>
-      <c r="U17" s="1">
-        <v>7</v>
-      </c>
-      <c r="V17" s="1">
-        <v>15</v>
-      </c>
-      <c r="W17" s="1">
-        <v>15</v>
-      </c>
-      <c r="X17" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" s="5" customFormat="1" ht="17">
-      <c r="A18" s="30">
-        <v>41501037</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="32">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="32">
-        <v>80</v>
-      </c>
-      <c r="G18" s="32">
-        <v>80</v>
-      </c>
-      <c r="H18" s="32">
-        <v>0</v>
-      </c>
-      <c r="I18" s="32">
-        <v>50</v>
-      </c>
-      <c r="J18" s="32">
-        <v>80</v>
-      </c>
-      <c r="K18" s="32">
-        <v>70</v>
-      </c>
-      <c r="L18" s="32">
-        <v>60</v>
-      </c>
-      <c r="M18" s="32">
-        <v>70</v>
-      </c>
-      <c r="N18" s="1">
-        <v>5</v>
-      </c>
-      <c r="O18" s="1">
-        <v>4</v>
-      </c>
-      <c r="P18" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>5</v>
-      </c>
-      <c r="R18" s="1">
-        <v>19</v>
-      </c>
-      <c r="S18" s="1">
-        <v>20</v>
-      </c>
-      <c r="T18" s="1">
-        <v>6</v>
-      </c>
-      <c r="U18" s="1">
-        <v>8</v>
-      </c>
-      <c r="V18" s="1">
-        <v>18</v>
-      </c>
-      <c r="W18" s="1">
-        <v>7</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" s="5" customFormat="1" ht="17">
-      <c r="A19" s="30">
-        <v>41501032</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="32">
-        <v>60</v>
-      </c>
-      <c r="D19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="32">
-        <v>80</v>
-      </c>
-      <c r="G19" s="32">
-        <v>80</v>
-      </c>
-      <c r="H19" s="32">
-        <v>100</v>
-      </c>
-      <c r="I19" s="32">
-        <v>50</v>
-      </c>
-      <c r="J19" s="32">
-        <v>100</v>
-      </c>
-      <c r="K19" s="32">
-        <v>95</v>
-      </c>
-      <c r="L19" s="32">
-        <v>30</v>
-      </c>
-      <c r="M19" s="32">
-        <v>100</v>
-      </c>
-      <c r="N19" s="1">
-        <v>8</v>
-      </c>
-      <c r="O19" s="1">
-        <v>3</v>
-      </c>
-      <c r="P19" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>5</v>
-      </c>
-      <c r="R19" s="1">
-        <v>5</v>
-      </c>
-      <c r="S19" s="1">
-        <v>20</v>
-      </c>
-      <c r="T19" s="1">
-        <v>7</v>
-      </c>
-      <c r="U19" s="1">
-        <v>4</v>
-      </c>
-      <c r="V19" s="1">
-        <v>15</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" s="5" customFormat="1" ht="17">
-      <c r="A20" s="30">
-        <v>41401015</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="32">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="32">
-        <v>80</v>
-      </c>
-      <c r="G20" s="32">
-        <v>60</v>
-      </c>
-      <c r="H20" s="32">
-        <v>80</v>
-      </c>
-      <c r="I20" s="32">
-        <v>100</v>
-      </c>
-      <c r="J20" s="32">
-        <v>50</v>
-      </c>
-      <c r="K20" s="32">
-        <v>70</v>
-      </c>
-      <c r="L20" s="32">
-        <v>85</v>
-      </c>
-      <c r="M20" s="32">
-        <v>70</v>
-      </c>
-      <c r="N20" s="1">
-        <v>8</v>
-      </c>
-      <c r="O20" s="1">
-        <v>4</v>
-      </c>
-      <c r="P20" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>15</v>
-      </c>
-      <c r="S20" s="1">
-        <v>5</v>
-      </c>
-      <c r="T20" s="1">
-        <v>7</v>
-      </c>
-      <c r="U20" s="1">
-        <v>8</v>
-      </c>
-      <c r="V20" s="1">
-        <v>15</v>
-      </c>
-      <c r="W20" s="1">
-        <v>10</v>
-      </c>
-      <c r="X20" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" s="5" customFormat="1" ht="17">
-      <c r="A21" s="30">
-        <v>41401031</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="32">
-        <v>56</v>
-      </c>
-      <c r="D21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="32">
-        <v>50</v>
-      </c>
-      <c r="G21" s="32">
-        <v>80</v>
-      </c>
-      <c r="H21" s="32">
-        <v>80</v>
-      </c>
-      <c r="I21" s="32">
-        <v>50</v>
-      </c>
-      <c r="J21" s="32">
-        <v>80</v>
-      </c>
-      <c r="K21" s="32">
-        <v>40</v>
-      </c>
-      <c r="L21" s="32">
-        <v>30</v>
-      </c>
-      <c r="M21" s="32">
-        <v>100</v>
-      </c>
-      <c r="N21" s="1">
-        <v>6</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>5</v>
-      </c>
-      <c r="R21" s="1">
-        <v>10</v>
-      </c>
-      <c r="S21" s="2">
-        <v>20</v>
-      </c>
-      <c r="T21" s="1">
-        <v>4</v>
-      </c>
-      <c r="U21" s="1">
-        <v>5</v>
-      </c>
-      <c r="V21" s="1">
-        <v>15</v>
-      </c>
-      <c r="W21" s="2">
-        <v>17</v>
-      </c>
-      <c r="X21" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" s="5" customFormat="1" ht="17">
-      <c r="A22" s="30">
-        <v>41501007</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="32">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="32">
-        <v>100</v>
-      </c>
-      <c r="G22" s="32">
-        <v>100</v>
-      </c>
-      <c r="H22" s="32">
-        <v>100</v>
-      </c>
-      <c r="I22" s="32">
-        <v>50</v>
-      </c>
-      <c r="J22" s="32">
-        <v>100</v>
-      </c>
-      <c r="K22" s="32">
-        <v>40</v>
-      </c>
-      <c r="L22" s="32">
-        <v>60</v>
-      </c>
-      <c r="M22" s="32">
-        <v>100</v>
-      </c>
-      <c r="N22" s="1">
-        <v>7</v>
-      </c>
-      <c r="O22" s="1">
-        <v>9</v>
-      </c>
-      <c r="P22" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>8</v>
-      </c>
-      <c r="S22" s="1">
-        <v>17</v>
-      </c>
-      <c r="T22" s="1">
-        <v>6</v>
-      </c>
-      <c r="U22" s="1">
-        <v>3</v>
-      </c>
-      <c r="V22" s="1">
-        <v>15</v>
-      </c>
-      <c r="W22" s="1">
-        <v>4</v>
-      </c>
-      <c r="X22" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" s="5" customFormat="1" ht="17">
-      <c r="A23" s="30">
-        <v>41501005</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="32">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0</v>
-      </c>
-      <c r="G23" s="32">
-        <v>0</v>
-      </c>
-      <c r="H23" s="32">
-        <v>80</v>
-      </c>
-      <c r="I23" s="32">
-        <v>0</v>
-      </c>
-      <c r="J23" s="32">
-        <v>0</v>
-      </c>
-      <c r="K23" s="32">
-        <v>60</v>
-      </c>
-      <c r="L23" s="32">
-        <v>80</v>
-      </c>
-      <c r="M23" s="32">
-        <v>100</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>20</v>
-      </c>
-      <c r="R23" s="1">
-        <v>15</v>
-      </c>
-      <c r="S23" s="2">
-        <v>10</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>6</v>
-      </c>
-      <c r="V23" s="1">
-        <v>15</v>
-      </c>
-      <c r="W23" s="2">
-        <v>7</v>
-      </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" s="5" customFormat="1" ht="17">
-      <c r="A24" s="30">
-        <v>41501006</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="32">
-        <v>42</v>
-      </c>
-      <c r="D24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="32">
-        <v>0</v>
-      </c>
-      <c r="G24" s="32">
-        <v>0</v>
-      </c>
-      <c r="H24" s="32">
-        <v>80</v>
-      </c>
-      <c r="I24" s="32">
-        <v>40</v>
-      </c>
-      <c r="J24" s="32">
-        <v>80</v>
-      </c>
-      <c r="K24" s="32">
-        <v>90</v>
-      </c>
-      <c r="L24" s="32">
-        <v>70</v>
-      </c>
-      <c r="M24" s="32">
-        <v>100</v>
-      </c>
-      <c r="N24" s="1">
-        <v>6</v>
-      </c>
-      <c r="O24" s="1">
-        <v>10</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>3</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
-        <v>5</v>
-      </c>
-      <c r="T24" s="1">
-        <v>3</v>
-      </c>
-      <c r="U24" s="1">
-        <v>2</v>
-      </c>
-      <c r="V24" s="1">
-        <v>10</v>
-      </c>
-      <c r="W24" s="1">
-        <v>3</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" s="5" customFormat="1" ht="17">
-      <c r="A25" s="30">
-        <v>41401010</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="32">
-        <v>40</v>
-      </c>
-      <c r="D25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="32">
-        <v>60</v>
-      </c>
-      <c r="G25" s="32">
-        <v>0</v>
-      </c>
-      <c r="H25" s="32">
-        <v>100</v>
-      </c>
-      <c r="I25" s="32">
-        <v>50</v>
-      </c>
-      <c r="J25" s="32">
-        <v>0</v>
-      </c>
-      <c r="K25" s="32">
-        <v>50</v>
-      </c>
-      <c r="L25" s="32">
-        <v>30</v>
-      </c>
-      <c r="M25" s="32">
-        <v>100</v>
-      </c>
-      <c r="N25" s="1">
-        <v>3</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
-        <v>10</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>8</v>
-      </c>
-      <c r="U25" s="1">
-        <v>8</v>
-      </c>
-      <c r="V25" s="1">
-        <v>3</v>
-      </c>
-      <c r="W25" s="1">
-        <v>4</v>
-      </c>
-      <c r="X25" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" s="5" customFormat="1" ht="17">
-      <c r="A26" s="30">
-        <v>41401006</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="32">
-        <v>39</v>
-      </c>
-      <c r="D26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="32">
-        <v>0</v>
-      </c>
-      <c r="G26" s="32">
-        <v>0</v>
-      </c>
-      <c r="H26" s="32">
-        <v>50</v>
-      </c>
-      <c r="I26" s="32">
-        <v>0</v>
-      </c>
-      <c r="J26" s="32">
-        <v>0</v>
-      </c>
-      <c r="K26" s="32">
-        <v>80</v>
-      </c>
-      <c r="L26" s="32">
-        <v>100</v>
-      </c>
-      <c r="M26" s="32">
-        <v>50</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
-      <c r="P26" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>3</v>
-      </c>
-      <c r="R26" s="1">
-        <v>3</v>
-      </c>
-      <c r="S26" s="1">
-        <v>15</v>
-      </c>
-      <c r="T26" s="1">
-        <v>6</v>
-      </c>
-      <c r="U26" s="1">
-        <v>5</v>
-      </c>
-      <c r="V26" s="1">
-        <v>10</v>
-      </c>
-      <c r="W26" s="1">
-        <v>3</v>
-      </c>
-      <c r="X26" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" s="5" customFormat="1" ht="17">
-      <c r="A27" s="57">
-        <v>41501002</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="32">
-        <v>37</v>
-      </c>
-      <c r="D27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="32">
-        <v>100</v>
-      </c>
-      <c r="G27" s="32">
-        <v>0</v>
-      </c>
-      <c r="H27" s="32">
-        <v>100</v>
-      </c>
-      <c r="I27" s="32">
-        <v>0</v>
-      </c>
-      <c r="J27" s="32">
-        <v>60</v>
-      </c>
-      <c r="K27" s="32">
-        <v>100</v>
-      </c>
-      <c r="L27" s="32">
-        <v>60</v>
-      </c>
-      <c r="M27" s="32">
-        <v>70</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>10</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1">
-        <v>10</v>
-      </c>
-      <c r="T27" s="1">
-        <v>1</v>
-      </c>
-      <c r="U27" s="1">
-        <v>7</v>
-      </c>
-      <c r="V27" s="1">
-        <v>15</v>
-      </c>
-      <c r="W27" s="1">
-        <v>0</v>
-      </c>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A28" s="30">
-        <v>41501026</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="32">
-        <v>29</v>
-      </c>
-      <c r="D28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="32">
-        <v>50</v>
-      </c>
-      <c r="G28" s="32">
-        <v>0</v>
-      </c>
-      <c r="H28" s="32">
-        <v>0</v>
-      </c>
-      <c r="I28" s="32">
-        <v>10</v>
-      </c>
-      <c r="J28" s="32">
-        <v>0</v>
-      </c>
-      <c r="K28" s="32">
-        <v>0</v>
-      </c>
-      <c r="L28" s="32">
-        <v>60</v>
-      </c>
-      <c r="M28" s="32">
-        <v>70</v>
-      </c>
-      <c r="N28" s="1">
-        <v>2</v>
-      </c>
-      <c r="O28" s="1">
-        <v>7</v>
-      </c>
-      <c r="P28" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>17</v>
-      </c>
-      <c r="R28" s="1">
-        <v>15</v>
-      </c>
-      <c r="S28" s="1">
-        <v>15</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1">
-        <v>0</v>
-      </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="1">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" s="5" customFormat="1" ht="17">
-      <c r="A29" s="30">
-        <v>41601006</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="32">
-        <v>23</v>
-      </c>
-      <c r="D29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="32">
-        <v>80</v>
-      </c>
-      <c r="G29" s="32">
-        <v>60</v>
-      </c>
-      <c r="H29" s="32">
-        <v>100</v>
-      </c>
-      <c r="I29" s="32">
-        <v>0</v>
-      </c>
-      <c r="J29" s="32">
-        <v>0</v>
-      </c>
-      <c r="K29" s="32">
-        <v>0</v>
-      </c>
-      <c r="L29" s="32">
-        <v>0</v>
-      </c>
-      <c r="M29" s="32">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1">
-        <v>2</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0</v>
-      </c>
-      <c r="P29" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>15</v>
-      </c>
-      <c r="R29" s="1">
-        <v>5</v>
-      </c>
-      <c r="S29" s="2">
-        <v>17</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0</v>
-      </c>
-      <c r="U29" s="1">
-        <v>0</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2">
-        <v>0</v>
-      </c>
-      <c r="X29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
+    <row r="15" spans="1:31" s="5" customFormat="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+    </row>
+    <row r="16" spans="1:31" s="5" customFormat="1">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+    </row>
+    <row r="17" spans="1:27" s="5" customFormat="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+    </row>
+    <row r="18" spans="1:27" s="5" customFormat="1">
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+    </row>
+    <row r="19" spans="1:27" s="5" customFormat="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+    </row>
+    <row r="20" spans="1:27" s="5" customFormat="1">
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+    </row>
+    <row r="21" spans="1:27" s="5" customFormat="1">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+    </row>
+    <row r="22" spans="1:27" s="5" customFormat="1">
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+    </row>
+    <row r="23" spans="1:27" s="5" customFormat="1">
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+    </row>
+    <row r="24" spans="1:27" s="5" customFormat="1">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+    </row>
+    <row r="25" spans="1:27" s="5" customFormat="1">
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+    </row>
+    <row r="26" spans="1:27" s="5" customFormat="1">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+    </row>
+    <row r="27" spans="1:27" s="5" customFormat="1">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+    </row>
+    <row r="28" spans="1:27" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+    </row>
+    <row r="29" spans="1:27" s="5" customFormat="1">
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="23"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="23"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-    </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="54"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="23"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="23"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
       <c r="S33" s="29"/>
       <c r="W33" s="29"/>
       <c r="X33" s="29"/>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="58"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
       <c r="S35" s="29"/>
       <c r="W35" s="29"/>
       <c r="X35" s="29"/>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="23"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
       <c r="S36" s="29"/>
       <c r="W36" s="29"/>
       <c r="X36" s="29"/>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="58"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
       <c r="S37" s="29"/>
       <c r="W37" s="29"/>
       <c r="X37" s="29"/>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="58"/>
-      <c r="B38" s="59"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="23"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="58"/>
-      <c r="B39" s="59"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="23"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="23"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
       <c r="S40" s="29"/>
       <c r="W40" s="29"/>
       <c r="X40" s="29"/>
@@ -4110,16 +3342,16 @@
     <sortCondition descending="1" ref="C10:C40"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="T2:Y2"/>
     <mergeCell ref="T3:Y3"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="N3:S3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
